--- a/data/exp_raw/sampling_schedule.xlsx
+++ b/data/exp_raw/sampling_schedule.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vcantarella/Documents/FuhrbergerColumns/data/exp_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15539ABD-778A-2A44-A680-65A0BB009B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787B23D5-EE2C-BF4B-A8ED-34574815AE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{DF7CBD0A-F99E-524F-94C2-BA70C8DF2242}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16680" xr2:uid="{DF7CBD0A-F99E-524F-94C2-BA70C8DF2242}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="17">
   <si>
     <t>vol</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>includes SO4(2-) measurement</t>
+  </si>
+  <si>
+    <t>total sample count</t>
   </si>
 </sst>
 </file>
@@ -468,7 +471,7 @@
   <dimension ref="A1:F145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,7 +856,7 @@
         <v>65</v>
       </c>
       <c r="B20" s="1">
-        <f>B19+TIME(C19,0,0)</f>
+        <f t="shared" ref="B20:B25" si="2">B19+TIME(C19,0,0)</f>
         <v>45792.5</v>
       </c>
       <c r="C20">
@@ -872,7 +875,7 @@
         <v>67.000000000058208</v>
       </c>
       <c r="B21" s="1">
-        <f>B20+TIME(C20,0,0)</f>
+        <f t="shared" si="2"/>
         <v>45792.583333333336</v>
       </c>
       <c r="C21">
@@ -891,7 +894,7 @@
         <v>68</v>
       </c>
       <c r="B22" s="1">
-        <f>B21+TIME(C21,0,0)</f>
+        <f t="shared" si="2"/>
         <v>45792.625</v>
       </c>
       <c r="C22">
@@ -910,7 +913,7 @@
         <v>68.999999999941792</v>
       </c>
       <c r="B23" s="1">
-        <f>B22+TIME(C22,0,0)</f>
+        <f t="shared" si="2"/>
         <v>45792.666666666664</v>
       </c>
       <c r="C23">
@@ -929,7 +932,7 @@
         <v>69.999999999883585</v>
       </c>
       <c r="B24" s="1">
-        <f>B23+TIME(C23,0,0)</f>
+        <f t="shared" si="2"/>
         <v>45792.708333333328</v>
       </c>
       <c r="C24">
@@ -951,7 +954,7 @@
         <v>84.999999999883585</v>
       </c>
       <c r="B25" s="1">
-        <f>B24+TIME(C24,0,0)</f>
+        <f t="shared" si="2"/>
         <v>45793.333333333328</v>
       </c>
       <c r="C25">
@@ -1065,7 +1068,7 @@
         <v>93.999999999708962</v>
       </c>
       <c r="B31" s="1">
-        <f t="shared" ref="B31" si="2">B30+TIME(C30,0,0)</f>
+        <f t="shared" ref="B31" si="3">B30+TIME(C30,0,0)</f>
         <v>45793.708333333321</v>
       </c>
       <c r="C31">
@@ -1201,7 +1204,7 @@
         <v>117.99999999953434</v>
       </c>
       <c r="B38" s="1">
-        <f t="shared" ref="B38" si="3">B37+TIME(C37,0,0)</f>
+        <f t="shared" ref="B38" si="4">B37+TIME(C37,0,0)</f>
         <v>45794.708333333314</v>
       </c>
       <c r="C38">
@@ -1337,7 +1340,7 @@
         <v>141.99999999935972</v>
       </c>
       <c r="B45" s="1">
-        <f t="shared" ref="B45" si="4">B44+TIME(C44,0,0)</f>
+        <f t="shared" ref="B45" si="5">B44+TIME(C44,0,0)</f>
         <v>45795.708333333307</v>
       </c>
       <c r="C45">
@@ -1470,7 +1473,7 @@
         <v>165.99999999918509</v>
       </c>
       <c r="B52" s="1">
-        <f t="shared" ref="B52" si="5">B51+TIME(C51,0,0)</f>
+        <f t="shared" ref="B52" si="6">B51+TIME(C51,0,0)</f>
         <v>45796.708333333299</v>
       </c>
       <c r="C52">
@@ -1606,7 +1609,7 @@
         <v>189.99999999901047</v>
       </c>
       <c r="B59" s="1">
-        <f t="shared" ref="B59" si="6">B58+TIME(C58,0,0)</f>
+        <f t="shared" ref="B59" si="7">B58+TIME(C58,0,0)</f>
         <v>45797.708333333292</v>
       </c>
       <c r="C59">
@@ -1739,7 +1742,7 @@
         <v>213.99999999883585</v>
       </c>
       <c r="B66" s="1">
-        <f t="shared" ref="B66" si="7">B65+TIME(C65,0,0)</f>
+        <f t="shared" ref="B66" si="8">B65+TIME(C65,0,0)</f>
         <v>45798.708333333285</v>
       </c>
       <c r="C66">
@@ -1757,7 +1760,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
-        <f t="shared" ref="A67:A103" si="8">(B67-$B$2)*24+$A$2</f>
+        <f t="shared" ref="A67:A102" si="9">(B67-$B$2)*24+$A$2</f>
         <v>228.99999999883585</v>
       </c>
       <c r="B67" s="1">
@@ -1776,11 +1779,11 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>229.99999999877764</v>
       </c>
       <c r="B68" s="1">
-        <f t="shared" ref="B68" si="9">B67+TIME(C67,0,0)</f>
+        <f t="shared" ref="B68" si="10">B67+TIME(C67,0,0)</f>
         <v>45799.374999999949</v>
       </c>
       <c r="C68">
@@ -1795,7 +1798,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>231.99999999883585</v>
       </c>
       <c r="B69" s="1">
@@ -1814,7 +1817,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>234.99999999883585</v>
       </c>
       <c r="B70" s="1">
@@ -1833,7 +1836,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>235.99999999877764</v>
       </c>
       <c r="B71" s="1">
@@ -1852,7 +1855,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>237.99999999883585</v>
       </c>
       <c r="B72" s="1">
@@ -1871,7 +1874,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>238.99999999877764</v>
       </c>
       <c r="B73" s="1">
@@ -1890,7 +1893,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>239.99999999871943</v>
       </c>
       <c r="B74" s="1">
@@ -1912,11 +1915,11 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>253.99999999877764</v>
       </c>
       <c r="B75" s="1">
-        <f t="shared" ref="B75" si="10">B74+TIME(C74,0,0)</f>
+        <f t="shared" ref="B75" si="11">B74+TIME(C74,0,0)</f>
         <v>45800.374999999949</v>
       </c>
       <c r="C75">
@@ -1931,7 +1934,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>255.99999999883585</v>
       </c>
       <c r="B76" s="1">
@@ -1950,7 +1953,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>258.99999999883585</v>
       </c>
       <c r="B77" s="1">
@@ -1969,7 +1972,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>259.99999999877764</v>
       </c>
       <c r="B78" s="1">
@@ -1988,7 +1991,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>261.99999999883585</v>
       </c>
       <c r="B79" s="1">
@@ -2007,7 +2010,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>262.99999999877764</v>
       </c>
       <c r="B80" s="1">
@@ -2026,7 +2029,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>263.99999999871943</v>
       </c>
       <c r="B81" s="1">
@@ -2048,7 +2051,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>277.99999999877764</v>
       </c>
       <c r="B82" s="1">
@@ -2067,7 +2070,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>280.99999999877764</v>
       </c>
       <c r="B83" s="1">
@@ -2086,7 +2089,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>281.99999999871943</v>
       </c>
       <c r="B84" s="1">
@@ -2105,7 +2108,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>283.99999999877764</v>
       </c>
       <c r="B85" s="1">
@@ -2124,7 +2127,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>284.99999999871943</v>
       </c>
       <c r="B86" s="1">
@@ -2143,7 +2146,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>285.99999999866122</v>
       </c>
       <c r="B87" s="1">
@@ -2162,11 +2165,11 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>286.99999999860302</v>
       </c>
       <c r="B88" s="1">
-        <f t="shared" ref="B88" si="11">B87+TIME(C87,0,0)</f>
+        <f t="shared" ref="B88" si="12">B87+TIME(C87,0,0)</f>
         <v>45801.749999999942</v>
       </c>
       <c r="C88">
@@ -2184,7 +2187,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>301.99999999860302</v>
       </c>
       <c r="B89" s="1">
@@ -2203,7 +2206,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>304.99999999860302</v>
       </c>
       <c r="B90" s="1">
@@ -2222,7 +2225,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>305.99999999854481</v>
       </c>
       <c r="B91" s="1">
@@ -2241,7 +2244,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>307.99999999860302</v>
       </c>
       <c r="B92" s="1">
@@ -2260,7 +2263,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>308.99999999854481</v>
       </c>
       <c r="B93" s="1">
@@ -2279,7 +2282,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>309.9999999984866</v>
       </c>
       <c r="B94" s="1">
@@ -2298,11 +2301,11 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>310.99999999842839</v>
       </c>
       <c r="B95" s="1">
-        <f t="shared" ref="B95" si="12">B94+TIME(C94,0,0)</f>
+        <f t="shared" ref="B95" si="13">B94+TIME(C94,0,0)</f>
         <v>45802.749999999935</v>
       </c>
       <c r="C95">
@@ -2320,7 +2323,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>325.99999999842839</v>
       </c>
       <c r="B96" s="1">
@@ -2339,7 +2342,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>328.99999999842839</v>
       </c>
       <c r="B97" s="1">
@@ -2358,7 +2361,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>329.99999999837019</v>
       </c>
       <c r="B98" s="1">
@@ -2377,7 +2380,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>331.99999999842839</v>
       </c>
       <c r="B99" s="1">
@@ -2396,7 +2399,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>332.99999999837019</v>
       </c>
       <c r="B100" s="1">
@@ -2415,7 +2418,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>333.99999999831198</v>
       </c>
       <c r="B101" s="1">
@@ -2434,11 +2437,11 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>334.99999999825377</v>
       </c>
       <c r="B102" s="1">
-        <f t="shared" ref="B102" si="13">B101+TIME(C101,0,0)</f>
+        <f t="shared" ref="B102" si="14">B101+TIME(C101,0,0)</f>
         <v>45803.749999999927</v>
       </c>
       <c r="C102">
@@ -2587,10 +2590,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247EEA20-2762-D948-8F9C-CCBE2C1A9E0C}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2599,7 +2602,7 @@
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2612,8 +2615,11 @@
       <c r="D1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2627,8 +2633,12 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>C2*4</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -2639,8 +2649,12 @@
         <f>COUNTIF(Sheet1!$E$2:$E$103,A3)</f>
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">C3*4</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2651,8 +2665,12 @@
         <f>COUNTIF(Sheet1!$E$2:$E$103,A4)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2681,12 @@
         <f>COUNTIF(Sheet1!$E$2:$E$103,A5)</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2674,6 +2696,10 @@
       <c r="C6">
         <f>COUNTIF(Sheet1!$E$2:$E$103,A6)</f>
         <v>14</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
